--- a/medicine/Sexualité et sexologie/Madame_Claude_(film,_1977)/Madame_Claude_(film,_1977).xlsx
+++ b/medicine/Sexualité et sexologie/Madame_Claude_(film,_1977)/Madame_Claude_(film,_1977).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Madame Claude (The French Woman) est un film français réalisé par Just Jaeckin, sorti en 1977.
 Le film mêle le grand banditisme, les secrets d'État, d'affaires et d'alcôve dans une ambiance soutenue par la bande originale composée par Serge Gainsbourg.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fernande Grudet, dite "Madame Claude", gère un réseau de prostitution de luxe à Paris qu'elle a créé. Ses recrues, au profil de mannequin, assouvissent les désirs de grands patrons, de hauts fonctionnaires et de personnalités politiques. Un jour aux États-Unis, David Evans, jeune photographe, surprend un homme d'affaires américain important en compagnie d'une call-girl et projette d'utiliser les photos compromettantes afin d'exercer un chantage sur Madame Claude…
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Madame Claude
 Titre anglais : The French Woman
@@ -558,7 +574,7 @@
 Durée : 106 minutes
 Date de sortie :
 France : 11 mai 1977
-Film interdit aux moins de 12 ans lors de sa sortie en salles en France[1]</t>
+Film interdit aux moins de 12 ans lors de sa sortie en salles en France</t>
         </is>
       </c>
     </row>
@@ -586,7 +602,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Françoise Fabian : Madame Claude
 Dayle Haddon : Elizabeth
@@ -643,6 +661,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -668,7 +688,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Murray Head, ici acteur, exprima plus tard sa déception de se voir privé de toute contribution musicale dès l'instant que Serge Gainsbourg fut engagé pour composer la musique du film.
 Il s'agit de la deuxième apparition à l'écran de Pascal Greggory, dans le rôle secondaire du fils d'Alexander Zakis, qui est joué par Klaus Kinski.
